--- a/data/trans_bre/P25A_11_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_11_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>164,63%</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>251,72%</t>
+          <t>100,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>207,88%</t>
+          <t>151,05%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>192,22%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>347,95%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,07</t>
+          <t>-1,4; 6,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 7,96</t>
+          <t>-0,15; 8,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 8,46</t>
+          <t>1,55; 10,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,67; 690,28</t>
+          <t>2,27; 11,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,66; 822,02</t>
+          <t>-35,15; 583,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,24; 621,3</t>
+          <t>-20,06; 684,16</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11,91; 734,6</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>40,78; 1823,68</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>152,99%</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>171,17%</t>
+          <t>22,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>78,59%</t>
+          <t>121,61%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>102,55%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 7,67</t>
+          <t>-3,13; 4,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,97</t>
+          <t>-1,44; 5,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 8,09</t>
+          <t>-4,1; 4,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,94; 885,05</t>
+          <t>-1,6; 10,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,83; 1844,17</t>
+          <t>-74,36; 553,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,49; 473,61</t>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-75,1; 352,66</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-32,98; 485,12</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-67,01%</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>29,31%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-21,81%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>115,92%</t>
         </is>
       </c>
     </row>
@@ -802,30 +868,40 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 1,53</t>
+          <t>-20,39; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 7,3</t>
+          <t>-12,28; 10,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 5,48</t>
+          <t>-13,11; 5,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-5,99; 15,22</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 366,01</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>108,79%</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>145,06%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>129,09%</t>
+          <t>123,26%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>90,21%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>178,04%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,65</t>
+          <t>-1,73; 3,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,33</t>
+          <t>0,15; 5,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,4</t>
+          <t>0,03; 5,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,28; 326,95</t>
+          <t>2,27; 9,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,41; 377,48</t>
+          <t>-41,24; 194,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,73; 317,1</t>
+          <t>-0,96; 461,86</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-8,44; 282,31</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>34,73; 513,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25A_11_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_11_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,96</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,94</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,38</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>100,97%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>151,05%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>192,22%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>347,95%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.244072362211023</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.21174852756429</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.804860811033487</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.067242308586172</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.181081533196233</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.690966068048378</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.946956814526721</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>3.343535291659929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,4; 6,69</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 8,28</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,55; 10,45</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 11,67</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-35,15; 583,33</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-20,06; 684,16</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>11,91; 734,6</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>40,78; 1823,68</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.8157777959006611</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.1007338084523443</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.564617099563612</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2.130349449709549</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2988514376140358</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1246225039668857</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.1675950725166461</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.3251021173053727</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.96818160742653</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.77284375888372</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.15182310222752</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.91616666005558</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>6.287539617448233</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>7.56026023223764</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>7.395655031193174</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>17.56277483919853</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,64</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>22,62%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>121,61%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,53%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>102,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 4,3</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 5,87</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,1; 4,26</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 10,76</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-74,36; 553,61</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-75,1; 352,66</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-32,98; 485,12</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.9915434445725152</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.61346791880397</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.3158084452022605</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.366734199052363</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.2330408988393032</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.6438871498266581</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.08796239984887655</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.22215883311077</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,98</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>29,31%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-21,81%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>115,92%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-10.57353164700032</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.905311413706443</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-5.016590421024817</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.6925112869780948</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8002958503797324</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2366329938535542</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-20,39; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,28; 10,15</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,11; 5,36</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,99; 15,22</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.235157445560261</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.889439193388549</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.746682588182591</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>12.86036747861317</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>3.105163069915827</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>2.942224494987758</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>5.926446383720158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +825,181 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,35</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>34,69%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>123,26%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>90,21%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>178,04%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-5.819449978391269</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.011607035898774</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.1913798289427983</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.743981980500588</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.5841666009098708</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.06211370199175759</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.436085996119116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 3,73</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 5,8</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 5,65</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 9,27</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-41,24; 194,07</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 461,86</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-8,44; 282,31</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>34,73; 513,32</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-19.42996505350501</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.399013814020162</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.70995873495862</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.673930827497962</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.24846109330984</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.210794345072705</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>16.87863615211572</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.6154106438581095</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.948194294223876</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.682520311221812</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.511107358868557</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1666608330864528</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.135640041217033</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.8256489756101503</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.872766399693199</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.330319935351458</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2054684668735285</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2346723952953529</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2.421372814614271</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6158723315983389</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1210585767253151</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1110213159741961</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.444343534417841</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.365599422790231</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.143640223721005</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.487438761845127</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.290128030871724</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.566874944655485</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>4.271633233051453</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.668924511068413</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>5.428071818736146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1007,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
